--- a/IdeationPlatform/AZCampaigns.xlsx
+++ b/IdeationPlatform/AZCampaigns.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="5295"/>
   </bookViews>
   <sheets>
     <sheet name="Campaigns" sheetId="1" r:id="rId1"/>
     <sheet name="Ideas" sheetId="2" r:id="rId2"/>
     <sheet name="comments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>CampaignTitle</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>ICBAZ-4 28.11 Campaign</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,113 +536,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -654,7 +668,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,44 +685,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
